--- a/3.c.load_next_msl-set-dest_taxnode_id-dest_parent_id.sql.QC.xlsx
+++ b/3.c.load_next_msl-set-dest_taxnode_id-dest_parent_id.sql.QC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\client\github\ICTVonlineDbLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICTVonlineDbLoad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ERROR_report</t>
   </si>
@@ -62,66 +62,17 @@
     <t>dest_ictv_id</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
-    <t>AvulavirinaeOrthoavulavirus</t>
-  </si>
-  <si>
-    <t>Avian orthoavulavirus 21</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
-    <t>AquaparamyxovirusName!!</t>
-  </si>
-  <si>
-    <t>Oncorhynchus aquaparamyxovirus</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Cynoglossusvirus</t>
-  </si>
-  <si>
-    <t>Hoplichthysvirus</t>
-  </si>
-  <si>
-    <t>Scoliodonvirus</t>
-  </si>
-  <si>
-    <t>Orhtophasmavirus</t>
-  </si>
-  <si>
-    <t>Anopheles orthophasmavirus</t>
-  </si>
-  <si>
-    <t>Emolyevavirinae</t>
-  </si>
-  <si>
-    <t>Vipunavirus</t>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Haploviricotina;Monjiviricetes;Mononegavirales;Paramyxoviridae;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AvulavirinaeOrthoavulavirus</t>
+    <t>FIX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metaxyviridae: </t>
     </r>
     <r>
       <rPr>
@@ -131,22 +82,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;Avian orthoavulavirus 21</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Haploviricotina;Monjiviricetes;Mononegavirales;Paramyxoviridae;Orthoparamyxovirinae;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AquaparamyxovirusName!!</t>
+      <t>created MSL36.47869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cofodevirus: </t>
     </r>
     <r>
       <rPr>
@@ -156,22 +97,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;Oncorhynchus aquaparamyxovirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Haploviricotina;Monjiviricetes;Mononegavirales;Paramyxoviridae;</t>
+      <t>never created, line missing;</t>
+    </r>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <r>
+      <t>Monodnaviria;Shotokuvirae;Cressdnaviricota;Arfiviricetes;Mulpavirales;</t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Unassigned</t>
+      <t>Metaxyviridae</t>
     </r>
     <r>
       <rPr>
@@ -181,22 +126,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;Cynoglossusvirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Haploviricotina;Monjiviricetes;Mononegavirales;Paramyxoviridae;</t>
+      <t>;</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Unassigned</t>
+      <t>Cofodevirus</t>
     </r>
     <r>
       <rPr>
@@ -206,22 +147,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;Hoplichthysvirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Haploviricotina;Monjiviricetes;Mononegavirales;Paramyxoviridae;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unassigned</t>
+      <t>;Coconut foliar decay virus</t>
+    </r>
+  </si>
+  <si>
+    <t>Cofodevirus</t>
+  </si>
+  <si>
+    <t>Coconut foliar decay virus</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>subfamily</t>
+  </si>
+  <si>
+    <t>Duplodnaviria;Heunggongvirae;Uroviricota;Caudoviricetes;Caudovirales;Siphoviridae;Hendrixvirinae</t>
+  </si>
+  <si>
+    <t>Siphoviridae</t>
+  </si>
+  <si>
+    <t>Hendrixvirinae</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FIX (data): </t>
     </r>
     <r>
       <rPr>
@@ -231,31 +183,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;Scoliodonvirus</t>
-    </r>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
-    <t>split "AvulavirinaeOrthoavulavirus" into subfamily and genus</t>
-  </si>
-  <si>
-    <t>removed "Name!!" suffix from genus</t>
-  </si>
-  <si>
-    <r>
-      <t>Riboviria;Negarnaviricota;Polyploviricotina;Ellioviricetes;Bunyavirales;Phasmaviridae;Or</t>
-    </r>
+      <t xml:space="preserve"> add MSL36.4769.5 to create Cofodevirus</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ht</t>
+      <t>FIX (code):</t>
     </r>
     <r>
       <rPr>
@@ -265,86 +206,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ophasmavirus;Anopheles orthophasmavirus</t>
-    </r>
-  </si>
-  <si>
-    <t>remove "Unassigned" genus (empty cell)</t>
-  </si>
-  <si>
-    <r>
-      <t>fix genus spelling: Or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ophasmavirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Caudovirales;Demerecviridae;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Emolyevavirinae</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;Vipunavirus</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fix subfamily spelling: E</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>molyevavirinae</t>
+      <t xml:space="preserve"> add 'promote' to list of actions where one searches parent in load_next_msl</t>
     </r>
   </si>
 </sst>
@@ -352,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,16 +238,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -432,16 +304,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -735,23 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="163.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="115.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -759,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -796,273 +694,156 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="8">
+        <v>47870</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8">
+        <v>202003907</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>201907416</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <v>201907416</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>673</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>201907559</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>201907559</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>676</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>201907561</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L4">
-        <v>201907561</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>678</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>201907562</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5">
-        <v>201907562</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>680</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C7" s="4">
+        <v>78209</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6">
-        <v>201907563</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6">
-        <v>201907563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>794</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
+        <v>202005557</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7">
-        <v>201907659</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7">
-        <v>201907659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1345</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <v>201908126</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>201908126</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <mergeCells count="11">
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1 A8:XFD1048576 M2:XFD7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
